--- a/安全建设顺序-安全建设第三版.xlsx
+++ b/安全建设顺序-安全建设第三版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300" tabRatio="930" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="9300" tabRatio="930"/>
   </bookViews>
   <sheets>
     <sheet name="公司分析及建设方案" sheetId="14" r:id="rId1"/>
@@ -1794,8 +1794,8 @@
   <sheetPr/>
   <dimension ref="A2:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1866,7 +1866,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1958,8 +1958,8 @@
   <sheetPr/>
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2139,8 +2139,8 @@
   <sheetPr/>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2562,8 +2562,8 @@
   <sheetPr/>
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -2904,7 +2904,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -3140,8 +3140,8 @@
   <sheetPr/>
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="3"/>
